--- a/REGULAR/ACCOUNTING/MANALO, EDITHA V..xlsx
+++ b/REGULAR/ACCOUNTING/MANALO, EDITHA V..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="345">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1057,9 +1057,6 @@
   </si>
   <si>
     <t>UT(0-2-35)</t>
-  </si>
-  <si>
-    <t>A(1-0-0)</t>
   </si>
   <si>
     <t>UT(0-1-36)</t>
@@ -1937,7 +1934,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1977,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2041,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2101,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2167,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2230,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2328,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2387,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2452,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2495,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2570,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2756,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2822,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2883,7 +2880,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2946,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,7 +3002,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3077,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3120,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3189,7 +3186,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3245,7 +3242,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3340,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3403,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3469,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K633" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K635" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3850,12 +3847,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K633"/>
+  <dimension ref="A2:K635"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A597" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A600" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F606" sqref="F606"/>
+      <selection pane="bottomLeft" activeCell="D614" sqref="D614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,7 +4015,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>156.55400000000003</v>
+        <v>158.05400000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4028,7 +4025,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>159.708</v>
+        <v>160.208</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17324,7 +17321,7 @@
         <v>44652</v>
       </c>
       <c r="B602" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C602" s="13">
         <v>1.25</v>
@@ -17394,7 +17391,7 @@
         <v>44713</v>
       </c>
       <c r="B605" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C605" s="13">
         <v>1.25</v>
@@ -17418,7 +17415,7 @@
         <v>44743</v>
       </c>
       <c r="B606" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C606" s="13">
         <v>1.25</v>
@@ -17508,7 +17505,7 @@
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C610" s="13"/>
       <c r="D610" s="39">
@@ -17594,12 +17591,10 @@
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
-        <v>341</v>
+        <v>120</v>
       </c>
       <c r="C614" s="13"/>
-      <c r="D614" s="39">
-        <v>1</v>
-      </c>
+      <c r="D614" s="39"/>
       <c r="E614" s="9"/>
       <c r="F614" s="20"/>
       <c r="G614" s="13" t="str">
@@ -17882,15 +17877,17 @@
       <c r="B627" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C627" s="13"/>
+      <c r="C627" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D627" s="39">
         <v>1</v>
       </c>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
-      <c r="G627" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G627" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
@@ -17923,25 +17920,33 @@
       <c r="A629" s="40">
         <v>45139</v>
       </c>
-      <c r="B629" s="20"/>
-      <c r="C629" s="13"/>
-      <c r="D629" s="39"/>
+      <c r="B629" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C629" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D629" s="39">
+        <v>1</v>
+      </c>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G629" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="20"/>
+      <c r="K629" s="49">
+        <v>45148</v>
+      </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B630" s="20"/>
+      <c r="A630" s="40"/>
+      <c r="B630" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C630" s="13"/>
       <c r="D630" s="39"/>
       <c r="E630" s="9"/>
@@ -17950,18 +17955,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H630" s="39"/>
+      <c r="H630" s="39">
+        <v>1</v>
+      </c>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
-      <c r="K630" s="20"/>
+      <c r="K630" s="49">
+        <v>45149</v>
+      </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B631" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B631" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C631" s="13"/>
-      <c r="D631" s="39"/>
+      <c r="D631" s="39">
+        <v>1</v>
+      </c>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
       <c r="G631" s="13" t="str">
@@ -17971,13 +17984,15 @@
       <c r="H631" s="39"/>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
-      <c r="K631" s="20"/>
+      <c r="K631" s="49">
+        <v>45184</v>
+      </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B632" s="20"/>
+      <c r="A632" s="40"/>
+      <c r="B632" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C632" s="13"/>
       <c r="D632" s="39"/>
       <c r="E632" s="9"/>
@@ -17986,14 +18001,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H632" s="39"/>
+      <c r="H632" s="39">
+        <v>1</v>
+      </c>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
+      <c r="K632" s="49">
+        <v>45183</v>
+      </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18008,6 +18027,42 @@
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B634" s="20"/>
+      <c r="C634" s="13"/>
+      <c r="D634" s="39"/>
+      <c r="E634" s="9"/>
+      <c r="F634" s="20"/>
+      <c r="G634" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H634" s="39"/>
+      <c r="I634" s="9"/>
+      <c r="J634" s="11"/>
+      <c r="K634" s="20"/>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B635" s="20"/>
+      <c r="C635" s="13"/>
+      <c r="D635" s="39"/>
+      <c r="E635" s="9"/>
+      <c r="F635" s="20"/>
+      <c r="G635" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H635" s="39"/>
+      <c r="I635" s="9"/>
+      <c r="J635" s="11"/>
+      <c r="K635" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ACCOUNTING/MANALO, EDITHA V..xlsx
+++ b/REGULAR/ACCOUNTING/MANALO, EDITHA V..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="346">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1069,6 +1069,19 @@
   </si>
   <si>
     <t>UT(0-1-21)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2024</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1934,7 +1947,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1990,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2054,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2114,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2180,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2243,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2328,7 +2341,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2400,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2465,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2508,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2583,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,7 +2769,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2835,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2893,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,7 +2959,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3015,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3077,7 +3090,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3133,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3199,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,7 +3255,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3353,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3416,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,7 +3482,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K637" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K648" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3847,12 +3860,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K637"/>
+  <dimension ref="A2:K648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A621" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A624" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D635" sqref="D635"/>
+      <selection pane="bottomLeft" activeCell="B638" sqref="B638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,7 +4028,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.55400000000003</v>
+        <v>162.05400000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4025,7 +4038,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>160.708</v>
+        <v>163.208</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18087,13 +18100,15 @@
         <v>45231</v>
       </c>
       <c r="B636" s="20"/>
-      <c r="C636" s="13"/>
+      <c r="C636" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D636" s="39"/>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
-      <c r="G636" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G636" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
@@ -18105,18 +18120,218 @@
         <v>45261</v>
       </c>
       <c r="B637" s="20"/>
-      <c r="C637" s="13"/>
+      <c r="C637" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D637" s="39"/>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G637" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B638" s="20"/>
+      <c r="C638" s="13"/>
+      <c r="D638" s="39"/>
+      <c r="E638" s="9"/>
+      <c r="F638" s="20"/>
+      <c r="G638" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H638" s="39"/>
+      <c r="I638" s="9"/>
+      <c r="J638" s="11"/>
+      <c r="K638" s="20"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B639" s="20"/>
+      <c r="C639" s="13"/>
+      <c r="D639" s="39"/>
+      <c r="E639" s="9"/>
+      <c r="F639" s="20"/>
+      <c r="G639" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H639" s="39"/>
+      <c r="I639" s="9"/>
+      <c r="J639" s="11"/>
+      <c r="K639" s="20"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B640" s="20"/>
+      <c r="C640" s="13"/>
+      <c r="D640" s="39"/>
+      <c r="E640" s="9"/>
+      <c r="F640" s="20"/>
+      <c r="G640" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H640" s="39"/>
+      <c r="I640" s="9"/>
+      <c r="J640" s="11"/>
+      <c r="K640" s="20"/>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B641" s="20"/>
+      <c r="C641" s="13"/>
+      <c r="D641" s="39"/>
+      <c r="E641" s="9"/>
+      <c r="F641" s="20"/>
+      <c r="G641" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H641" s="39"/>
+      <c r="I641" s="9"/>
+      <c r="J641" s="11"/>
+      <c r="K641" s="20"/>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B642" s="20"/>
+      <c r="C642" s="13"/>
+      <c r="D642" s="39"/>
+      <c r="E642" s="9"/>
+      <c r="F642" s="20"/>
+      <c r="G642" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H642" s="39"/>
+      <c r="I642" s="9"/>
+      <c r="J642" s="11"/>
+      <c r="K642" s="20"/>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A643" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B643" s="20"/>
+      <c r="C643" s="13"/>
+      <c r="D643" s="39"/>
+      <c r="E643" s="9"/>
+      <c r="F643" s="20"/>
+      <c r="G643" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H643" s="39"/>
+      <c r="I643" s="9"/>
+      <c r="J643" s="11"/>
+      <c r="K643" s="20"/>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A644" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B644" s="20"/>
+      <c r="C644" s="13"/>
+      <c r="D644" s="39"/>
+      <c r="E644" s="9"/>
+      <c r="F644" s="20"/>
+      <c r="G644" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H644" s="39"/>
+      <c r="I644" s="9"/>
+      <c r="J644" s="11"/>
+      <c r="K644" s="20"/>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A645" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B645" s="20"/>
+      <c r="C645" s="13"/>
+      <c r="D645" s="39"/>
+      <c r="E645" s="9"/>
+      <c r="F645" s="20"/>
+      <c r="G645" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H645" s="39"/>
+      <c r="I645" s="9"/>
+      <c r="J645" s="11"/>
+      <c r="K645" s="20"/>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A646" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B646" s="20"/>
+      <c r="C646" s="13"/>
+      <c r="D646" s="39"/>
+      <c r="E646" s="9"/>
+      <c r="F646" s="20"/>
+      <c r="G646" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H646" s="39"/>
+      <c r="I646" s="9"/>
+      <c r="J646" s="11"/>
+      <c r="K646" s="20"/>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A647" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B647" s="20"/>
+      <c r="C647" s="13"/>
+      <c r="D647" s="39"/>
+      <c r="E647" s="9"/>
+      <c r="F647" s="20"/>
+      <c r="G647" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H647" s="39"/>
+      <c r="I647" s="9"/>
+      <c r="J647" s="11"/>
+      <c r="K647" s="20"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B648" s="20"/>
+      <c r="C648" s="13"/>
+      <c r="D648" s="39"/>
+      <c r="E648" s="9"/>
+      <c r="F648" s="20"/>
+      <c r="G648" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H648" s="39"/>
+      <c r="I648" s="9"/>
+      <c r="J648" s="11"/>
+      <c r="K648" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ACCOUNTING/MANALO, EDITHA V..xlsx
+++ b/REGULAR/ACCOUNTING/MANALO, EDITHA V..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="347">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1082,6 +1082,9 @@
       </rPr>
       <t>2024</t>
     </r>
+  </si>
+  <si>
+    <t>UT(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1950,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1993,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2057,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2117,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2183,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2246,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2344,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2403,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2468,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2511,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2586,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2769,7 +2772,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2838,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2896,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,7 +2962,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3018,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3090,7 +3093,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3136,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3202,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3258,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3356,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3419,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,7 +3485,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K648" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K650" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3860,12 +3863,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K648"/>
+  <dimension ref="A2:K650"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A624" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A615" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B638" sqref="B638"/>
+      <selection pane="bottomLeft" activeCell="F624" sqref="F624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,7 +4031,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>162.05400000000003</v>
+        <v>160.49400000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -17733,11 +17736,15 @@
       <c r="A620" s="40">
         <v>44927</v>
       </c>
-      <c r="B620" s="20"/>
+      <c r="B620" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="C620" s="13">
         <v>1.25</v>
       </c>
-      <c r="D620" s="39"/>
+      <c r="D620" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E620" s="9"/>
       <c r="F620" s="20"/>
       <c r="G620" s="13">
@@ -17930,223 +17937,225 @@
       </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C629" s="13">
-        <v>1.25</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C629" s="13"/>
       <c r="D629" s="39">
-        <v>1</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G629" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="49">
-        <v>45148</v>
-      </c>
+      <c r="K629" s="49"/>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="40"/>
+      <c r="A630" s="40">
+        <v>45139</v>
+      </c>
       <c r="B630" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C630" s="13"/>
-      <c r="D630" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="C630" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D630" s="39">
+        <v>1</v>
+      </c>
       <c r="E630" s="9"/>
       <c r="F630" s="20"/>
-      <c r="G630" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H630" s="39">
-        <v>1</v>
-      </c>
+      <c r="G630" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H630" s="39"/>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
       <c r="K630" s="49">
-        <v>45149</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C631" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D631" s="39">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C631" s="13"/>
+      <c r="D631" s="39"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H631" s="39"/>
+      <c r="G631" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H631" s="39">
+        <v>1</v>
+      </c>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
       <c r="K631" s="49">
-        <v>45184</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="40"/>
+      <c r="A632" s="40">
+        <v>45170</v>
+      </c>
       <c r="B632" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C632" s="13"/>
-      <c r="D632" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="C632" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D632" s="39">
+        <v>1</v>
+      </c>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H632" s="39">
-        <v>1</v>
-      </c>
+      <c r="G632" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H632" s="39"/>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
       <c r="K632" s="49">
-        <v>45183</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C633" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D633" s="39">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C633" s="13"/>
+      <c r="D633" s="39"/>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H633" s="39"/>
+      <c r="G633" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H633" s="39">
+        <v>1</v>
+      </c>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
       <c r="K633" s="49">
-        <v>45223</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
-        <v>48</v>
+        <v>346</v>
       </c>
       <c r="C634" s="13"/>
-      <c r="D634" s="39"/>
+      <c r="D634" s="39">
+        <v>1</v>
+      </c>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
       <c r="G634" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H634" s="39">
-        <v>1</v>
-      </c>
+      <c r="H634" s="39"/>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="49">
-        <v>45204</v>
-      </c>
+      <c r="K634" s="49"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="40"/>
+      <c r="A635" s="40">
+        <v>45200</v>
+      </c>
       <c r="B635" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C635" s="13"/>
-      <c r="D635" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="C635" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D635" s="39">
+        <v>1</v>
+      </c>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H635" s="39">
-        <v>1</v>
-      </c>
+      <c r="G635" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
       <c r="K635" s="49">
-        <v>45219</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B636" s="20"/>
-      <c r="C636" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A636" s="40"/>
+      <c r="B636" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C636" s="13"/>
       <c r="D636" s="39"/>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
-      <c r="G636" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H636" s="39"/>
+      <c r="G636" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H636" s="39">
+        <v>1</v>
+      </c>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
+      <c r="K636" s="49">
+        <v>45204</v>
+      </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B637" s="20"/>
-      <c r="C637" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A637" s="40"/>
+      <c r="B637" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C637" s="13"/>
       <c r="D637" s="39"/>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H637" s="39"/>
+      <c r="G637" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H637" s="39">
+        <v>1</v>
+      </c>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
+      <c r="K637" s="49">
+        <v>45219</v>
+      </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="23" t="s">
-        <v>345</v>
+      <c r="A638" s="40">
+        <v>45231</v>
       </c>
       <c r="B638" s="20"/>
-      <c r="C638" s="13"/>
+      <c r="C638" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D638" s="39"/>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G638" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
@@ -18155,16 +18164,18 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B639" s="20"/>
-      <c r="C639" s="13"/>
+      <c r="C639" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D639" s="39"/>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G639" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H639" s="39"/>
       <c r="I639" s="9"/>
@@ -18172,8 +18183,8 @@
       <c r="K639" s="20"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="40">
-        <v>45323</v>
+      <c r="A640" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18191,7 +18202,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18209,7 +18220,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18227,7 +18238,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18245,7 +18256,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18263,7 +18274,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18281,7 +18292,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18299,7 +18310,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18317,7 +18328,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18332,6 +18343,42 @@
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A649" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B649" s="20"/>
+      <c r="C649" s="13"/>
+      <c r="D649" s="39"/>
+      <c r="E649" s="9"/>
+      <c r="F649" s="20"/>
+      <c r="G649" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H649" s="39"/>
+      <c r="I649" s="9"/>
+      <c r="J649" s="11"/>
+      <c r="K649" s="20"/>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A650" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B650" s="20"/>
+      <c r="C650" s="13"/>
+      <c r="D650" s="39"/>
+      <c r="E650" s="9"/>
+      <c r="F650" s="20"/>
+      <c r="G650" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H650" s="39"/>
+      <c r="I650" s="9"/>
+      <c r="J650" s="11"/>
+      <c r="K650" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18379,7 +18426,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18448,15 +18495,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.16900000000000001</v>
+        <v>3.7000000000000019E-2</v>
       </c>
       <c r="J3" s="1">
         <v>26</v>
